--- a/Datos/Database by set/Set with text box/Xlsx sets/Exodus Promos (PEXO).xlsx
+++ b/Datos/Database by set/Set with text box/Xlsx sets/Exodus Promos (PEXO).xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A7"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,42 +444,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Monstrous Hound</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>{3}{R}</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Creature — Dog</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Monstrous Hound can’t attack unless you control more lands than defending player.</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Monstrous Hound can’t block unless you control more lands than attacking player.</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>4/4</t>
+          <t>('Monstrous Hound', ['{3}{R}', 'Creature — Dog', 'Monstrous Hound can’t attack unless you control more lands than defending player.', 'Monstrous Hound can’t block unless you control more lands than attacking player.', '4/4'])</t>
         </is>
       </c>
     </row>
